--- a/criardataset/ojb/Yehuda_ordenado_output.xlsx
+++ b/criardataset/ojb/Yehuda_ordenado_output.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,8 @@
     <col width="22729.2" customWidth="1" min="7" max="7"/>
     <col width="2299.2" customWidth="1" min="8" max="8"/>
     <col width="482.4" customWidth="1" min="9" max="9"/>
+    <col width="470.4" customWidth="1" min="10" max="10"/>
+    <col width="1510.8" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.2" customHeight="1">
@@ -509,6 +511,16 @@
           <t>Ibn</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Onkelos</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="68.2" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -540,6 +552,8 @@
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
     </row>
     <row r="3" ht="68.2" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -571,6 +585,8 @@
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
     </row>
     <row r="4" ht="68.2" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -602,6 +618,16 @@
       </c>
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>In the course of time, Kayin brought some fruit of the soil as an offering to Adonoy.</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>And it was at the end of days, on the fourteenth of Nisan, that Kain brought of the produce of the earth, the seed of cotton (or line), an oblation of first things before the Lord;</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="68.2" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -633,6 +659,16 @@
         </is>
       </c>
       <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Hevel also brought from the firstborn of his flock, from the best thereof. [&lt;b&gt;There was favor before Adonoy&lt;/b&gt;] Adonoy paid regard to Hevel and to his offering.</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>and Habel brought of the firstlings of the flock, and of their fat; and it was pleasing before the Lord, and He gave (His) countenance to Habel and to his oblation;</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="68.2" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -664,6 +700,16 @@
         </is>
       </c>
       <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>But to Kayin and his offering He paid no regard [&lt;b&gt;there was no favor&lt;/b&gt;]. Kayin became very angry and depressed.</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>but to Kain and to his oblation He gave no countenance. And Kain was angered greatly, and the features of his face were downcast.</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="68.2" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -695,6 +741,16 @@
         </is>
       </c>
       <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Adonoy said to Kayin, Why are you angry? Why are you depressed?</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>And the Lord said to Kain, Why hast thou anger, and why are the features of thy face downcast?</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="68.2" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -730,6 +786,16 @@
         </is>
       </c>
       <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Is this not so—if you improve [&lt;b&gt;your actions&lt;/b&gt;], there is forgiveness [&lt;b&gt;for you&lt;/b&gt;], but if you do not improve [&lt;b&gt;your actions&lt;/b&gt;], sin rests at the opening [&lt;b&gt;your sin will be kept for the Day of Judgement&lt;/b&gt;]. Its desire is unto you, but you can dominate it. [&lt;b&gt;For in the future, it will be exacted from you if you do not repent. And if you repent, there is forgiveness.&lt;/b&gt;]</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>If thou doest thy work well, will not thy guilt be forgiven thee? But if thou doest not thy work well in this world, thy sin is retained unto the day of the great judgment, and at the doors of thy heart lieth thy sin. And into thy hand have I delivered the power over evil passion, and unto thee shall be the inclination thereof, that thou mayest have authority over it to become righteous, or to sin.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="68.2" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -765,6 +831,16 @@
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Kayin said [something] to his brother Hevel, and it happened when they were in the field, that Kayin rose up against his brother, Hevel, and killed him.</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>And Kain said to Habel his brother, Come, and let us two go forth into the field. And it was that when they two had gone forth into the field, Kain answered and said to Habel, I perceive that the world was created in goodness, but it is not governed (or conducted) according to the fruit of good works, for there is respect to persons in judgment; therefore it is that thy offering was accepted, and mine not accepted with good will. Habel answered and said to Kain, In goodness was the world created, and according to the fruit of good works is it governed; and there is no respect of persons in judgment; but because the fruits of my works were better than thine, my oblation, before thine, hath been accepted with good will. Kain answered and said to Habel, There is neither judgment nor Judge, nor another world; nor will good reward be given to the righteous, nor vengeance be taken of the wicked. And Habel answered and said to Kain, There is a judgment, and there is a Judge; and there is another world, and a good reward given to the righteous, and vengeance taken of the wicked. And because of these words they had contention upon the face of the field; and Kain arose against Habel his brother, and drave a stone into his forehead, and killed him.</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="68.2" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
@@ -796,6 +872,8 @@
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
       <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
     </row>
     <row r="11" ht="68.2" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
@@ -835,6 +913,16 @@
         </is>
       </c>
       <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Korach took [&lt;b&gt;divided&lt;/b&gt;], [Korach], the son of Yitzhar the son of Kehos, the son of Levi, and Dasan and Aviram the sons of Eliav, and On the son of Peles, the sons of Reuvein.</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>But Korach bar Tizhar bar Kehath, bar Levi, with Dathan and Abiram the sons of Eliab, and On bar Peleth, of the Beni-Reuben, took his robe which was all of hyacinth,</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="68.2" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
@@ -862,6 +950,16 @@
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>They rose up before Moshe with men from Bnei Yisroel [numbering] two hundred and fifty, who were the leaders of the congregation, those who were called to meetings, men of [prominent] name.</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>and rose up boldly, and in the face of Mosheh appointed a (different) observance in the matter of the hyacinth. Mosheh had said, I have heard from the mouth of the Holy One, whose Name be Blessed, that the fringes are to be of white, with one filament of hyacinth; O but Korach and his companions made garments with their fringes altogether of hyacinth, which the Lord had not commanded; and two hundred and fifty men of the sons of Israel, who had been made leaders of the congregation at the time when the journeys and encampments were appointed, by expression of their names, supported him.</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="68.2" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -897,6 +995,16 @@
         </is>
       </c>
       <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>They gathered against Moshe and Aharon, and they said to them: “You have [taken] too much for yourselves [and] since the entire congregation are all holy and Adonoy is [&lt;b&gt;the Shechinah of Hashem dwells&lt;/b&gt;] in their midst, why do [&lt;b&gt;what is this that&lt;/b&gt;] you raise yourselves above the assembly of Adonoy?”</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>And they gathered together against Mosheh and Aharon, and said to them: Let the authority you have (hitherto had) suffice you, for all the congregation are holy, and the Lord's Shekinah dwelleth among them; and why should you be magnified over the church of the Lord?</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="68.2" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -932,6 +1040,16 @@
       </c>
       <c r="H14" s="3" t="n"/>
       <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>Moshe heard, and he fell upon his face.</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh heard, as if every one of them was jealous of his wife, and would have them drink of the trial-water on account of Mosheh; and he fell on his face for shame.</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="68.2" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -971,6 +1089,16 @@
         </is>
       </c>
       <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>He spoke to Korach and to his entire congregation, saying: “[In the] morning, Adonoy will make known who is [&lt;b&gt;qualified to be&lt;/b&gt;] His, and who is holy, He will bring close to Him; and whoever He chooses, He will bring near to Him [&lt;b&gt;to His service&lt;/b&gt;].</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>And he spake with Korach and all the company who supported him, saying: In the morning the Lord will make known him whom He hath approved, and hath consecrated to approach unto His service, and who it hath pleased Him should come nigh in ministering, unto Him.</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="68.2" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -1002,6 +1130,16 @@
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
       <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Do this: Take, for yourselves, fire pans, Korach and his entire congregation,</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>Do this: Let Korach and all the company of his helpers take censers,</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="68.2" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -1037,6 +1175,16 @@
         </is>
       </c>
       <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>and place fire in them and put [&lt;b&gt;fragrant&lt;/b&gt;] incense upon them before Adonoy, tomorrow; and it will be that the man who will be chosen by Adonoy, he is the holy one; [you have taken] too much upon yourselves, sons of Levi.”</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>put fire in them, and lay incense upon them before the Lord, tomorrow; and the man whom the Lord shall make known, he it is who is consecrated. Let it suffice to you, sons of Levi.</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="68.2" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -1068,6 +1216,16 @@
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
       <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Moshe said to Korach, “Please listen sons of Levi,</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh said to Korach and his kindred: Hear now, ye sons of Levi:</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="68.2" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -1103,6 +1261,16 @@
         </is>
       </c>
       <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>is it but a pittance for yourselves that the God of Israel has separated you from the [rest of the] congregation of Israel to bring you closer to [&lt;b&gt;before&lt;/b&gt;] Him to perform the services of the &lt;i&gt;Mishkan&lt;/i&gt; of Adonoy, and to stand before the congregation to serve them?</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>Is it too little For you that the God of Israel hath set you apart from the congregation of Israel to draw near to do His service to fulfil the ministry of the Lord's tabernacle, and to stand before the congregation to minister to them?</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="68.2" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -1134,6 +1302,16 @@
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>He brought you near with all of your brethren the sons of Levi with you, and yet [&lt;b&gt;now&lt;/b&gt;] you ask to be &lt;i&gt;kohanim&lt;/i&gt; [&lt;b&gt;Kohein Gadol&lt;/b&gt;] as well?</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>But so hath he brought nigh thee and all the sons of Levi with thee and now do ye demand the high-priesthood also?</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="68.2" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -1173,6 +1351,16 @@
         </is>
       </c>
       <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>Therefore, you and your entire congregation who are gathered against Adonoy; and what is Aharon that you rail against him?”</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>Therefore art thou and all the company of thy helpers gathered together against the Word of the Lord: and Aharon, what is he, that you murmur against him?</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="68.2" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -1208,6 +1396,16 @@
       </c>
       <c r="H22" s="3" t="n"/>
       <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>Moshe sent to call for Dasan and Avirom the sons of Eliav and they said “We will not go up.</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh sent men to summon Dathan and Abiram, the sons of Eliab, to the house of the great judgment; but they said, We will not come up.</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="68.2" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -1239,6 +1437,16 @@
       </c>
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>Is it but a pittance that you have brought us up from a land flowing with [&lt;b&gt;that produces&lt;/b&gt;] milk and honey to kill us in the desert, that you must excercise power over us to make yourself powerful as well?</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>Is it a little thing, that thou hast brought us from Mizraim, a land that produceth milk and honey, to kill us in the wilderness, that ruling thou mayest domineer over us?</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="68.2" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
@@ -1274,6 +1482,16 @@
         </is>
       </c>
       <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Even into a land flowing with [&lt;b&gt;that produces&lt;/b&gt;] milk and honey you have not brought us, and [not] given us an inheritance of fields and vineyards if you put those people’s eyes out, [even then] we would not go up.”</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>Neither hast thou brought us into the land producing milk and honey to give us an inheritance of fields and vineyards. Wilt thou blind the eyes of the men of that land, that thou mayest overcome them? We shall not go up thither.</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="68.2" customHeight="1">
       <c r="A25" s="3" t="inlineStr">
@@ -1313,6 +1531,16 @@
         </is>
       </c>
       <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Moshe was extremely distressed, and said to [&lt;b&gt;before&lt;/b&gt;] Adonoy: “Do not turn to [&lt;b&gt;accept&lt;/b&gt;] their offering [&lt;b&gt;with pleasure&lt;/b&gt;]; not a donkey did I sequester from any one of them nor have I done ill to any one of them.”</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh was very wroth, and said before the Lord: I beseech thee, look not upon their offering, the portion of their hands; for not an ass have I taken from one of them, nor to any of them done an injury,</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="68.2" customHeight="1">
       <c r="A26" s="3" t="inlineStr">
@@ -1352,6 +1580,16 @@
         </is>
       </c>
       <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Moshe said to Korach: “You and your entire congregation will be before Adonoy, you, and they, and Aharon, tomorrow.</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh said to Korach, Thou, and all the company of thy helpers, come together to the house of judgment before the Lord tomorrow, thou, they, and Aharon.</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="68.2" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
@@ -1383,6 +1621,16 @@
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>Each man will take his firepan and place [&lt;b&gt;fragrant&lt;/b&gt;] incense in them and you will offer before Adonoy each man his firepan, two hundred and fifty firepans, and you and Aharon will each take his own firepan.”</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>And take every one his censer, and put incense upon them; and let each offer his censer before the Lord, two hundred and fifty censers; thou also, and Aharon, each man his censer.</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="68.2" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
@@ -1410,6 +1658,16 @@
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>Each man took his firepan and they placed fire in them and they put [&lt;b&gt;fragrant&lt;/b&gt;] incense in them and they stood at the entrance of the Tent of Meeting along with Moshe and Aharon.</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>And they took every one his censer, and put fire in them and sweet incense with it, and stood at the door of the tabernacle of ordinance on one side; but Mosheh and Aharon on the other side.</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="68.2" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
@@ -1445,6 +1703,16 @@
       </c>
       <c r="H29" s="3" t="n"/>
       <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>Korach congregated against them, the entire congregation at the entrance of the Tent of Meeting, and the glory of Adonoy appeared to the entire congregation.</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>And Korach gathered to them the whole congregation at the door of the tabernacle. And he had brought forth, from his riches, two treasures which he had found among the treasures of Joseph filled with silver and gold, and sought with them to drive the riches of Mosheh and Aharon out of the world; but the glory of the Lord revealed itself to all the congregation.</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="68.2" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
@@ -1472,6 +1740,16 @@
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
       <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>Adonoy spoke to Moshe and to Aharon, saying:</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>And the Lord spake with Mosheh and Aharon, saying:</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="68.2" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
@@ -1507,6 +1785,16 @@
         </is>
       </c>
       <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>“Separate yourselves from among this congregation, and I will annihalate them in an instant.”</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>Separate yourselves from among this congregation, that I may destroy them quickly.</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="68.2" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
@@ -1542,6 +1830,16 @@
         </is>
       </c>
       <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>They fell upon their faces, and they said: “Almighty, the God of the spirits of all flesh; if one man sins shall You be angry with the entire congregation?”</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>But they bowed down upon their faces in prayer, and said: El Eloha, who hast put the spirit of life in the bodies of the children of men, and from whom is given the spirit of all flesh, - if one man hath sinned, wilt Thou be angry with all the congregation</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="68.2" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
@@ -1569,6 +1867,16 @@
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>Adonoy spoke to Moshe, saying:</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>And the Lord spake with Mosheh, saying:</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="68.2" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
@@ -1604,6 +1912,16 @@
         </is>
       </c>
       <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Speak to the congregation, saying: “Depart from the vicinity of the dwelling of Korach, Dasan and Avirom.”</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>I have accepted thy prayer for the congregation. Now speak thou with them, saying: Remove away from the tents of Korach, Dathan, and Abiram.</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="68.2" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
@@ -1635,6 +1953,16 @@
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>Moshe rose up and went to Dasan and Avirom and the elders of Israel went along after him.</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh arose, and went to remonstrate with Dathan and Abiram; and the elders of Israel followed.</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="68.2" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
@@ -1670,6 +1998,16 @@
         </is>
       </c>
       <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>He spoke to the congregation, saying: “Please get away from the tents of these evil [&lt;b&gt;guilty&lt;/b&gt;] men, and do not touch [&lt;b&gt;come near&lt;/b&gt;] anything belonging to them, lest you be swept away [&lt;b&gt;smitten&lt;/b&gt;] in all their transgressions.”</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>And he said to the congregation, Remove now away from the tents of these men of sin, who have been worthy of death from (the days of) their youth in Mizraim, for they betrayed my secret when I slew the Mizraite; they provoked the Lord at the sea; at Alush they profaned the Sabbath, and now are they gathered together against the Word of the Lord; and therefore is it fit that their wealth should be scattered abroad and destroyed. Touch not, then, anything that is theirs, nor be smitten on account of their sins.</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="68.2" customHeight="1">
       <c r="A37" s="3" t="inlineStr">
@@ -1701,6 +2039,16 @@
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
       <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>They withdraw from the dwelling of Korach, Dasan and Avirom, and all around; and Dasan and Avirom went out, and stood at the door of their tents with their wives, children and infants.</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>And they went apart from the tents of Korach, Dathan, and Abiram round about. But Dathan and Abiram came out, with reviling words, and arose and provoked Mosheh at the door of their tents, with their wives, their sons, and their little ones.</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="68.2" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
@@ -1732,6 +2080,16 @@
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Moshe said: “This is how you will know that Adonoy has sent me to perform all of these deeds, for, I did not devise them myself [&lt;b&gt;from my own will&lt;/b&gt;].</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>And Mosheh said, By this you shall know that the Lord hath sent me to do all these works, and that (I do them) not from the thoughts of my heart.</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="68.2" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
@@ -1767,6 +2125,16 @@
       </c>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>If as all men die will these men meet their deaths, and the reckoning (fate) of all men will be reckoned upon them, then Adonoy has not sent me.</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>If these men die after the manner of dying in which all men die, and the (common) account of all men be accounted upon them, the Lord hath not sent me.</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="68.2" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
@@ -1806,6 +2174,16 @@
         </is>
       </c>
       <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>If Adonoy will create a [new] creation and the ground will open its mouth and swallow them along with all of their belongings, and they will go down alive to the grave, then you will know that these men have angered Adonoy.”</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>But if a death which hath not been created since the days of the world be now created for them, and if a mouth for the earth, which hath not been made from the beginning, be created now, and the earth open her mouth and swallow them and all they have, and they go down alive into Sheol, you will understand that these men have provoked the Lord to anger.</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="68.2" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
@@ -1833,6 +2211,16 @@
       <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>As he was finishing speaking all these words the ground beneath them split.</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>And it came to pass, when he had finished speaking these words, the earth beneath them clave asunder;</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="68.2" customHeight="1">
       <c r="A42" s="3" t="inlineStr">
@@ -1868,6 +2256,16 @@
         </is>
       </c>
       <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>The earth opened its mouth and swallowed them and their houses [&lt;b&gt;household members&lt;/b&gt;] and all the people belonging to Korach and all of the possessions.</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>and the earth opened her mouth and swallowed them up, and the men of their houses, and all the men who adhered to Korach, and all their substance.</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="68.2" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
@@ -1903,6 +2301,16 @@
         </is>
       </c>
       <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>They, and all belonging to them, went down alive to the grave, and the earth covered them and they perished from among the assembly.</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>And they went down with all that they had alive into Sheol; and the earth closed upon them, and they perished from the midst of the congregation.</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="68.2" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
@@ -1934,6 +2342,16 @@
       <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
       <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>All of Yisroel who were around them fled from their uproar, for they said, perhaps the earth will swallow us.</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>And all Israel who were round about them fled from the terror of their voice, as they cried and said, Righteous is the Lord, and His judgment is truth, and the words of His servant Mosheh are truth; but we are wicked who have rebelled against him: and the children of Israel fled when they heard; for they said, Lest the earth swallow us up.</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="68.2" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
@@ -1961,6 +2379,16 @@
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>A fire came forth from [&lt;b&gt;before&lt;/b&gt;] Adonoy and consumed the two hundred and fifty men who were bringing the [&lt;b&gt;fragrant&lt;/b&gt;] incense.</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>And a fire came out in wrath from before the Lord, and devoured the two hundred and fifty men who offered the incense.</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="68.2" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
@@ -1992,6 +2420,16 @@
       <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>They were the very same ones who, on Bila’m’s advice were involved with Bnei Yisroel to cause them to commit a betrayal [&lt;b&gt;deception&lt;/b&gt;] against [&lt;b&gt;before&lt;/b&gt;] Adonoy regarding the matter of Pe’or, so that the plague broke out within the community of Adonoy.</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>These are they who caused the offence of the sons of Israel, by the counsel of Bileam, to do wrongly before the Lord in the matter of Peor, so that pestilence came upon the congregation of the Lord.</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="68.2" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
@@ -2027,6 +2465,8 @@
           <t>['', 'Our predecessors, their memory to blessing, said that stood is harder than went and sat is harder than all of them. If so, the insulters will be worse than sinners. And Rabbi Moshe the Kohen explained to the contrary, and said that the intention of did not stand is "didn\'t even stand". And according to my understanding, that the word wicked are those who do not stand on one standard(?)...']</t>
         </is>
       </c>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
